--- a/Utils/excel/signal.xlsx
+++ b/Utils/excel/signal.xlsx
@@ -1,91 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94158465-6E34-634A-97FC-5EC02D4ECB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="6040" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="26580" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MPWizard" sheetId="1" r:id="rId1"/>
-    <sheet name="AmiPy" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AmiPy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZRM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverNight Options" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>NIFTY2381019600CE</t>
-  </si>
-  <si>
-    <t>Bullish-Small-UpCross</t>
-  </si>
-  <si>
-    <t>10:25:37</t>
-  </si>
-  <si>
-    <t>10:59:27</t>
-  </si>
-  <si>
-    <t>AmiPy</t>
-  </si>
-  <si>
-    <t>ShortSignal</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>09:25:00</t>
-  </si>
-  <si>
-    <t>14:56:00</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,6 +52,16 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -112,27 +74,90 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,40 +457,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col width="25.5" customWidth="1" min="2" max="2"/>
+    <col width="23.1640625" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tr.No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Trading Symbol</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CrossType</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Entry Time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Exit Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Entry Prc</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Exit Prc</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Trade Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NIFTY2381019600CE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bullish-Small-UpCross</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10:25:37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:59:27</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2-F2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BANKNIFTY2381045000CE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>157.05</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3-F3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="F1">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="G1">
-        <v>58.5</v>
-      </c>
-      <c r="H1" s="2">
-        <f>G1-F1</f>
-        <v>-18.099999999999994</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FINNIFTY238820050CE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.4326388888888889</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2">
+        <f>G4-F4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NIFTY2381019550CE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10:19:54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:48:54</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-24.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FINNIFTY2381420050CE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10:19:54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:23:54</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>108.5775</v>
+      </c>
+      <c r="G6" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-24.3775</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NIFTY2381719400PE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bullish-Big-UpCross</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13:37:54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:10:00</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-17.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BANKNIFTY2381744100PE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bullish-Big-UpCross</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14:04:38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:10:00</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>184.85</v>
+      </c>
+      <c r="G8" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>10.34999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -474,46 +761,275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tr.No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SiGNAL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>StrikePrc</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Entry Prc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Exit Prc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Trade Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>19600</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09:25:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>21.34999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45146</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19600</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14:56</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>154.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="J3" s="1">
+        <f>H3-I3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>19600</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09:21:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>19600</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1">
-        <v>169.6</v>
-      </c>
-      <c r="I1">
-        <v>148.25</v>
-      </c>
-      <c r="J1" s="1">
-        <v>21.349999999999991</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19300</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>09:21:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>195.35</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-21.94999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utils/excel/signal.xlsx
+++ b/Utils/excel/signal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="26580" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="26580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,8 +34,15 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -54,7 +61,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -72,11 +94,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -84,10 +107,14 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -462,10 +489,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -515,6 +542,11 @@
           <t>Trade Points</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -753,6 +785,218 @@
       </c>
       <c r="H8" s="6" t="n">
         <v>10.34999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NIFTY2381719400CE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10:17:10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>25.89999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BANKNIFTY2381743900CE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10:20:10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>150.92</v>
+      </c>
+      <c r="G10" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-18.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BANKNIFTY43900CE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>288.92</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11-F11</f>
+        <v/>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NIFTY19250CE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10:46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>104.02</v>
+      </c>
+      <c r="G12" t="n">
+        <v>106.01</v>
+      </c>
+      <c r="H12" s="7">
+        <f>G12-F12</f>
+        <v/>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NIFTY2382419300CE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-DownCross</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10:16:35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10:27:41</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>114</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>35.15000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BANKNIFTY2382444000CE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10:31:35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:09:41</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>194.05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>222</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>27.94999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +1010,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -991,6 +1235,173 @@
       </c>
       <c r="J5" s="5" t="n">
         <v>-21.94999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19300</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11:40:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>122.35</v>
+      </c>
+      <c r="I6" t="n">
+        <v>149.45</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-27.09999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45155</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19400</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09:21:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J7" s="7">
+        <f>H7-I7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>19300</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>09:21:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>189.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>180.35</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>9.099999999999966</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>19300</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>09:21:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>165.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>162.89</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>2.460000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1435,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/Utils/excel/signal.xlsx
+++ b/Utils/excel/signal.xlsx
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -84,6 +84,11 @@
         <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -99,7 +104,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -110,6 +115,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
@@ -999,6 +1005,74 @@
         <v>27.94999999999999</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BANKNIFTY2382444100CE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11:07:25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:05:26</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>246.35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FINNIFTY2382919600CE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bullish-Medium-UpCross</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11:25:25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14:20:22</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>178</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>60.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1010,7 +1084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -1402,6 +1476,48 @@
       </c>
       <c r="J9" s="9" t="n">
         <v>2.460000000000008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ShortSignal</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>19400</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11:36:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14:56:00</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>93.34999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>-3.210000000000008</v>
       </c>
     </row>
   </sheetData>
